--- a/消防课程/消防课-整理中编码版.xlsx
+++ b/消防课程/消防课-整理中编码版.xlsx
@@ -11784,7 +11784,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
